--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neural Netwrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7C6338-ED8B-47AC-8B4F-A86F43BFCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07133E18-F4DD-4113-AA0E-C4B82F4B9F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,13 +748,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
-        <f>D2/C2</f>
-        <v>#REF!</v>
+        <f t="shared" ref="E2:E41" si="0">D2/C2</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,13 +766,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" s="7" t="e">
-        <f t="shared" ref="E3:E41" si="0">D3/C3</f>
-        <v>#REF!</v>
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,13 +784,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,13 +802,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,13 +820,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,13 +838,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -862,13 +856,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,13 +874,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,13 +892,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,13 +910,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,13 +928,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,13 +946,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,13 +964,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,13 +982,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,13 +1000,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1033,13 +1018,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,13 +1036,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,13 +1054,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,13 +1072,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,13 +1090,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,13 +1108,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,13 +1126,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1166,13 +1144,12 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,13 +1162,12 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,13 +1180,12 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,13 +1198,12 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,13 +1216,12 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,13 +1234,12 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,13 +1252,12 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,13 +1270,12 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,13 +1288,12 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,13 +1306,12 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,13 +1324,12 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,13 +1342,12 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,13 +1360,12 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,13 +1378,12 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,13 +1396,12 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,13 +1414,12 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,13 +1432,12 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,13 +1450,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neural Netwrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07133E18-F4DD-4113-AA0E-C4B82F4B9F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1A953-DD5E-4ED8-926F-5A3C282A9CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neural Netwrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1A953-DD5E-4ED8-926F-5A3C282A9CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DF1E6-7B2A-4AE7-973C-5C1EFF86FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>23095A3218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D41"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -1439,8 +1442,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
